--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t xml:space="preserve">IPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC_binned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC_binned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -470,43 +482,43 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.474030672975708</v>
+        <v>-0.277709644207089</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0687485839561798</v>
+        <v>0.0749851821181655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.622488158710685</v>
+        <v>0.757516738959022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.544015305435733</v>
+        <v>0.653978631792614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.71228052568237</v>
+        <v>0.877447032527939</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.89513362599372</v>
+        <v>-3.70352696842771</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00000000000538141940878416</v>
+        <v>0.000212622566142205</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0624180376913216</v>
+        <v>0.113834599520866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0827761940009702</v>
+        <v>0.145790984268287</v>
       </c>
       <c r="M2" t="n">
-        <v>0.110442648895647</v>
+        <v>0.194518488749233</v>
       </c>
       <c r="N2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O2" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="P2" t="n">
-        <v>57.7034283353986</v>
+        <v>57.6557985967808</v>
       </c>
     </row>
     <row r="3">
@@ -520,43 +532,43 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.232976420355246</v>
+        <v>-0.153385992632464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.079215901895004</v>
+        <v>0.0894951140627208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.792172252444388</v>
+        <v>0.85779855397936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.678249823230196</v>
+        <v>0.719789539324687</v>
       </c>
       <c r="H3" t="n">
-        <v>0.925229695680779</v>
+        <v>1.02226875914233</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.94103096451572</v>
+        <v>-1.71390353807434</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00327121831885194</v>
+        <v>0.0865464431696102</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0357594674174525</v>
+        <v>0.073028917059104</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0358887520573374</v>
+        <v>0.0718494330983327</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0560630518678052</v>
+        <v>0.112306944305696</v>
       </c>
       <c r="N3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O3" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="P3" t="n">
-        <v>57.6621230896324</v>
+        <v>57.6145274453157</v>
       </c>
     </row>
     <row r="4">
@@ -570,43 +582,43 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.153843821300085</v>
+        <v>0.461019005258009</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0730889003516131</v>
+        <v>0.0892487827619285</v>
       </c>
       <c r="F4" t="n">
-        <v>1.16630871997394</v>
+        <v>1.5856889874225</v>
       </c>
       <c r="G4" t="n">
-        <v>1.01064584462006</v>
+        <v>1.3312141107413</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3459472846283</v>
+        <v>1.88880927909697</v>
       </c>
       <c r="I4" t="n">
-        <v>2.10488624893766</v>
+        <v>5.16554950096942</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0353012109682544</v>
+        <v>0.000000239733569788497</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0484711597700764</v>
+        <v>0.118910231759434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.055520500352695</v>
+        <v>0.130648251452652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0802032486771446</v>
+        <v>0.188817719862249</v>
       </c>
       <c r="N4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O4" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="P4" t="n">
-        <v>57.6621230896324</v>
+        <v>57.6145274453157</v>
       </c>
     </row>
     <row r="5">
@@ -620,43 +632,743 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.142010634449568</v>
+        <v>0.0544310647737754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0661286446116637</v>
+        <v>0.0761565249481052</v>
       </c>
       <c r="F5" t="n">
-        <v>0.867612029860478</v>
+        <v>1.05593968246383</v>
       </c>
       <c r="G5" t="n">
-        <v>0.762141703574338</v>
+        <v>0.909522334774284</v>
       </c>
       <c r="H5" t="n">
-        <v>0.987678053606468</v>
+        <v>1.2259276879424</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.14749047532301</v>
+        <v>0.714726214344286</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0317542546590231</v>
+        <v>0.474778236188585</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0304747826268263</v>
+        <v>0.0774878152768621</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0399154629276052</v>
+        <v>0.098465119075854</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05413924236046</v>
+        <v>0.133502051630754</v>
       </c>
       <c r="N5" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O5" t="n">
+        <v>1025</v>
+      </c>
+      <c r="P5" t="n">
+        <v>57.697069748246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.285053204405541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0757349441863523</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.32983277920181</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.14638408380066</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.54263762523339</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.76382669146944</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000167332874167268</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0972400001695605</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.126052977178474</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.168109688794596</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O6" t="n">
         <v>1023</v>
       </c>
-      <c r="P5" t="n">
-        <v>57.7447335811648</v>
+      <c r="P6" t="n">
+        <v>57.7796120511762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.144892834801062</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0784515988561995</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.865114998364168</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.741813089449046</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.00891177446127</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.84690735324143</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0647605688475073</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.049918217288945</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0596305967361741</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.08420098774212</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1023</v>
+      </c>
+      <c r="P7" t="n">
+        <v>57.7796120511762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.353613196686234</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0802194354731535</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.702146507431532</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.599989400225056</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.821697379509321</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4.4080738614095</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000104293980897137</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.118111595294721</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.150833450920129</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.20124629155273</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1026</v>
+      </c>
+      <c r="P8" t="n">
+        <v>57.6557985967808</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.27091319773525</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.093867762879963</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.76268269611719</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.634515214761292</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.916739081150983</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.88611541836457</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00390029095300199</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0782644185795363</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0767974956761099</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.120041198625879</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1027</v>
+      </c>
+      <c r="P9" t="n">
+        <v>57.6145274453157</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.54220334705942</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0912392944568404</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.71979198930163</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.43817411009857</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.05655522909069</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.94265168628526</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0000000028044793616234</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.126730946598951</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.138616739425802</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.200334075520367</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1027</v>
+      </c>
+      <c r="P10" t="n">
+        <v>57.6145274453157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.248464663798204</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0799149222726422</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.28205551859636</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.09618000825009</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.49944930612929</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.10911475269323</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00187648821921928</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0843088675169225</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.106653864012637</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.144604605099453</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="P11" t="n">
+        <v>57.697069748246</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.375787233719321</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0795580807252309</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.4561372838954</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.24589406351891</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.70185881098236</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.72343262046724</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000002318968132913</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1032522314758</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.133303181444457</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.177778874006509</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1023</v>
+      </c>
+      <c r="P12" t="n">
+        <v>57.7796120511762</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.298360164871945</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08324442648671</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.742034037020215</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.630325301806949</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.873540234729711</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.58414583971671</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000338183095847031</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0575987450080382</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0684843911982473</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0967029293589483</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1023</v>
+      </c>
+      <c r="P13" t="n">
+        <v>57.7796120511762</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.101646636366734</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0980781045192021</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.903348705857622</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.745366137778353</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.09481614875467</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.03638459231064</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.300022755558335</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0406260094228055</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0536113507825898</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.072214192770468</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O14" t="n">
+        <v>498</v>
+      </c>
+      <c r="P14" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.529002081952203</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.131879816116494</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.589192642376447</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.454986959200133</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.762984439028375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.01124370301605</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0000603997228140692</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.133742016230118</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.12448905479413</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.197623960470597</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O15" t="n">
+        <v>496</v>
+      </c>
+      <c r="P15" t="n">
+        <v>79.5295088732976</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.706498706701155</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.134553455113491</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.0268821115501</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.55702030625682</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.63853404969285</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.25069167570054</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000000151529133448422</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.117609209266204</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.109508090966956</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.17465601250276</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O16" t="n">
+        <v>498</v>
+      </c>
+      <c r="P16" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0809607779959706</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.112767288658018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.08432836620115</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.869303373867096</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.35254048367264</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.717945593615319</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.472790833824323</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0479612882594603</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0517975895117022</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0772984069733736</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O17" t="n">
+        <v>498</v>
+      </c>
+      <c r="P17" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.382779369705488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.102373001954327</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.46635447215732</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.19976809730801</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.79217587368784</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.73906559735604</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000184705529157814</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0748738360552026</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0967216969242504</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.130180226328061</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O18" t="n">
+        <v>494</v>
+      </c>
+      <c r="P18" t="n">
+        <v>79.6120511762278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.460852848962429</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.112834073451539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.630745485422112</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.505600911709888</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.786865407411794</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4.08434114682884</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0000442020523447398</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0819960210401691</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0938027368991288</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.134160292611273</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O19" t="n">
+        <v>496</v>
+      </c>
+      <c r="P19" t="n">
+        <v>79.5295088732976</v>
       </c>
     </row>
   </sheetData>
